--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
@@ -425,9 +425,6 @@
       <c r="D2">
         <v>2009</v>
       </c>
-      <c r="E2">
-        <v>0.7015182403732778</v>
-      </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
@@ -436,14 +433,8 @@
       <c r="B3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>-0.5555135891318952</v>
-      </c>
       <c r="D3">
         <v>2010</v>
-      </c>
-      <c r="E3">
-        <v>-0.2451976371230291</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -453,14 +444,8 @@
       <c r="B4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.8442071301477228</v>
-      </c>
       <c r="D4">
         <v>2011</v>
-      </c>
-      <c r="E4">
-        <v>1.212115489820365</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -470,14 +455,8 @@
       <c r="B5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>1.122475521884692</v>
-      </c>
       <c r="D5">
         <v>2012</v>
-      </c>
-      <c r="E5">
-        <v>0.3626630030113764</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -487,14 +466,8 @@
       <c r="B6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>-0.578174579726376</v>
-      </c>
       <c r="D6">
         <v>2013</v>
-      </c>
-      <c r="E6">
-        <v>-0.7218300370884001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -505,13 +478,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.7492845378401558</v>
+        <v>-0.6616365666142765</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>-0.07607154651957382</v>
+        <v>0.2197847717222867</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -522,13 +495,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.2751437421933511</v>
+        <v>0.2184978785563896</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.184453991189526</v>
+        <v>0.04195831742983547</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -539,13 +512,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>0.07468705617190707</v>
+        <v>-0.01790997771649039</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.3631938889236741</v>
+        <v>0.1671491311400208</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -556,13 +529,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.05493014849097255</v>
+        <v>-0.08711135105702317</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.1249812328300459</v>
+        <v>0.1158714888162216</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -573,13 +546,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.2820931576894115</v>
+        <v>0.1761917659537371</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.2464114370821502</v>
+        <v>0.1078587431702305</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -590,13 +563,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.1945700812221007</v>
+        <v>0.3524405906205841</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.007490141202270983</v>
+        <v>0.1531204771924033</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -607,13 +580,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>-0.0007133001605263978</v>
+        <v>0.07560805834034845</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.1199330684587996</v>
+        <v>-0.01670081902098719</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -624,13 +597,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-2.594017828322792</v>
+        <v>-0.5849047489490333</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.126320849439001</v>
+        <v>-0.2059746096811033</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -641,13 +614,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.5726882163857971</v>
+        <v>-0.4334047671505248</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.4385391043360887</v>
+        <v>-0.06335028919957075</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -658,13 +631,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.09402823344024647</v>
+        <v>-0.1663214453978101</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>0.8200243578187161</v>
+        <v>-0.3613518455741316</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -675,13 +648,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.6846709791617167</v>
+        <v>0.6502606143725664</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.1200849649013458</v>
+        <v>-0.1691853834640433</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -692,13 +665,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.2212143863870253</v>
+        <v>0.1549171986535924</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.3049434951572172</v>
+        <v>-0.03486668218654065</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -709,13 +682,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.09492420427399395</v>
+        <v>-0.06391119588061711</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.2765110737940724</v>
+        <v>-0.2122873162357264</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
@@ -444,8 +444,14 @@
       <c r="B4">
         <v>2010</v>
       </c>
+      <c r="C4">
+        <v>0.7825601129312298</v>
+      </c>
       <c r="D4">
         <v>2011</v>
+      </c>
+      <c r="E4">
+        <v>-0.2328395085068102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -455,8 +461,14 @@
       <c r="B5">
         <v>2011</v>
       </c>
+      <c r="C5">
+        <v>1.171373351779592</v>
+      </c>
       <c r="D5">
         <v>2012</v>
+      </c>
+      <c r="E5">
+        <v>0.6458049593451864</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -466,8 +478,14 @@
       <c r="B6">
         <v>2012</v>
       </c>
+      <c r="C6">
+        <v>0.4797371259343874</v>
+      </c>
       <c r="D6">
         <v>2013</v>
+      </c>
+      <c r="E6">
+        <v>0.5448268972618964</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -478,13 +496,13 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>-0.6616365666142765</v>
+        <v>0.1088602047940146</v>
       </c>
       <c r="D7">
         <v>2014</v>
       </c>
       <c r="E7">
-        <v>0.2197847717222867</v>
+        <v>0.1671551101610103</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -495,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>0.2184978785563896</v>
+        <v>-0.075394216261504</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>0.04195831742983547</v>
+        <v>-0.06463514052835739</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -512,13 +530,13 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.01790997771649039</v>
+        <v>-0.07548837955325682</v>
       </c>
       <c r="D9">
         <v>2016</v>
       </c>
       <c r="E9">
-        <v>0.1671491311400208</v>
+        <v>0.05928147027902675</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -529,13 +547,13 @@
         <v>2016</v>
       </c>
       <c r="C10">
-        <v>-0.08711135105702317</v>
+        <v>-0.5735475396625112</v>
       </c>
       <c r="D10">
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.1158714888162216</v>
+        <v>0.02406984837131088</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -546,13 +564,13 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.1761917659537371</v>
+        <v>0.02883110668334687</v>
       </c>
       <c r="D11">
         <v>2018</v>
       </c>
       <c r="E11">
-        <v>0.1078587431702305</v>
+        <v>0.241498802789164</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -563,13 +581,13 @@
         <v>2018</v>
       </c>
       <c r="C12">
-        <v>0.3524405906205841</v>
+        <v>0.7252300059688022</v>
       </c>
       <c r="D12">
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.1531204771924033</v>
+        <v>0.2052430644269299</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -580,13 +598,13 @@
         <v>2019</v>
       </c>
       <c r="C13">
-        <v>0.07560805834034845</v>
+        <v>-0.6243248145489155</v>
       </c>
       <c r="D13">
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>-0.01670081902098719</v>
+        <v>0.07475225043114264</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -597,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.5849047489490333</v>
+        <v>-0.6491730431770759</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.2059746096811033</v>
+        <v>-0.4370777949570193</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -614,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>-0.4334047671505248</v>
+        <v>1.311904119834839</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.06335028919957075</v>
+        <v>-0.1159018519404809</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -631,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-0.1663214453978101</v>
+        <v>-1.338216592160768</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.3613518455741316</v>
+        <v>-0.2487719682984557</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -648,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.6502606143725664</v>
+        <v>0.2512652100014945</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.1691853834640433</v>
+        <v>0.041441321352087</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -665,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.1549171986535924</v>
+        <v>0.9693451788297391</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>-0.03486668218654065</v>
+        <v>0.08029846083614789</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -682,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-0.06391119588061711</v>
+        <v>-1.551451534890558</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.2122873162357264</v>
+        <v>-0.1079783528070921</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.311904119834839</v>
+        <v>1.65545307357684</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>-0.1159018519404809</v>
+        <v>0.1245975200357741</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,13 +649,13 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.338216592160768</v>
+        <v>-1.105429175133765</v>
       </c>
       <c r="D16">
         <v>2023</v>
       </c>
       <c r="E16">
-        <v>-0.2487719682984557</v>
+        <v>-0.1028550454766353</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.2512652100014945</v>
+        <v>0.131237362188763</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>0.041441321352087</v>
+        <v>-0.03490505833951829</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,13 +683,13 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.9693451788297391</v>
+        <v>0.7202664148089788</v>
       </c>
       <c r="D18">
         <v>2025</v>
       </c>
       <c r="E18">
-        <v>0.08029846083614789</v>
+        <v>0.01261954615912053</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.551451534890558</v>
+        <v>-1.4049744797338</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.1079783528070921</v>
+        <v>-0.06336997074021244</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_TRDBAL_yoy_AR2_50_9_summer.xlsx
@@ -451,7 +451,7 @@
         <v>2011</v>
       </c>
       <c r="E4">
-        <v>-0.2328395085068102</v>
+        <v>-0.2328395085068324</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -479,13 +479,13 @@
         <v>2012</v>
       </c>
       <c r="C6">
-        <v>0.4797371259343874</v>
+        <v>0.4797371259344096</v>
       </c>
       <c r="D6">
         <v>2013</v>
       </c>
       <c r="E6">
-        <v>0.5448268972618964</v>
+        <v>0.5448268972618742</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -496,7 +496,7 @@
         <v>2013</v>
       </c>
       <c r="C7">
-        <v>0.1088602047940146</v>
+        <v>0.1088602047939924</v>
       </c>
       <c r="D7">
         <v>2014</v>
@@ -513,13 +513,13 @@
         <v>2014</v>
       </c>
       <c r="C8">
-        <v>-0.075394216261504</v>
+        <v>-0.0753942162614929</v>
       </c>
       <c r="D8">
         <v>2015</v>
       </c>
       <c r="E8">
-        <v>-0.06463514052835739</v>
+        <v>-0.06463514052834629</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -530,7 +530,7 @@
         <v>2015</v>
       </c>
       <c r="C9">
-        <v>-0.07548837955325682</v>
+        <v>-0.07548837955327903</v>
       </c>
       <c r="D9">
         <v>2016</v>
@@ -553,7 +553,7 @@
         <v>2017</v>
       </c>
       <c r="E10">
-        <v>0.02406984837131088</v>
+        <v>0.02406984837133308</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -564,7 +564,7 @@
         <v>2017</v>
       </c>
       <c r="C11">
-        <v>0.02883110668334687</v>
+        <v>0.02883110668336908</v>
       </c>
       <c r="D11">
         <v>2018</v>
@@ -587,7 +587,7 @@
         <v>2019</v>
       </c>
       <c r="E12">
-        <v>0.2052430644269299</v>
+        <v>0.2052430644269743</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -604,7 +604,7 @@
         <v>2020</v>
       </c>
       <c r="E13">
-        <v>0.07475225043114264</v>
+        <v>0.07475225043116485</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -615,13 +615,13 @@
         <v>2020</v>
       </c>
       <c r="C14">
-        <v>-0.6491730431770759</v>
+        <v>-0.6491730431770648</v>
       </c>
       <c r="D14">
         <v>2021</v>
       </c>
       <c r="E14">
-        <v>-0.4370777949570193</v>
+        <v>-0.4370777949570304</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -632,13 +632,13 @@
         <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.65545307357684</v>
+        <v>1.655453073576818</v>
       </c>
       <c r="D15">
         <v>2022</v>
       </c>
       <c r="E15">
-        <v>0.1245975200357741</v>
+        <v>0.1245975200357519</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -649,7 +649,7 @@
         <v>2022</v>
       </c>
       <c r="C16">
-        <v>-1.105429175133765</v>
+        <v>-1.105429175133776</v>
       </c>
       <c r="D16">
         <v>2023</v>
@@ -666,13 +666,13 @@
         <v>2023</v>
       </c>
       <c r="C17">
-        <v>0.131237362188763</v>
+        <v>0.1312373621887408</v>
       </c>
       <c r="D17">
         <v>2024</v>
       </c>
       <c r="E17">
-        <v>-0.03490505833951829</v>
+        <v>-0.0349050583395405</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -683,7 +683,7 @@
         <v>2024</v>
       </c>
       <c r="C18">
-        <v>0.7202664148089788</v>
+        <v>0.7202664148089566</v>
       </c>
       <c r="D18">
         <v>2025</v>
@@ -700,13 +700,13 @@
         <v>2025</v>
       </c>
       <c r="C19">
-        <v>-1.4049744797338</v>
+        <v>-1.404974479733823</v>
       </c>
       <c r="D19">
         <v>2026</v>
       </c>
       <c r="E19">
-        <v>-0.06336997074021244</v>
+        <v>-0.06336997074016804</v>
       </c>
     </row>
   </sheetData>
